--- a/web/import/contacts.xlsx
+++ b/web/import/contacts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLATA-PC\workspace\entrances\web\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\workspace\entrances\web\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>690559621</t>
   </si>
@@ -338,78 +338,6 @@
   </si>
   <si>
     <t>671889464</t>
-  </si>
-  <si>
-    <t>690104981</t>
-  </si>
-  <si>
-    <t>690646390</t>
-  </si>
-  <si>
-    <t>656115412</t>
-  </si>
-  <si>
-    <t>697657362</t>
-  </si>
-  <si>
-    <t>696994731</t>
-  </si>
-  <si>
-    <t>697621108</t>
-  </si>
-  <si>
-    <t>698999940</t>
-  </si>
-  <si>
-    <t>654093862</t>
-  </si>
-  <si>
-    <t>694208890</t>
-  </si>
-  <si>
-    <t>697709688</t>
-  </si>
-  <si>
-    <t>675771424</t>
-  </si>
-  <si>
-    <t>655365147</t>
-  </si>
-  <si>
-    <t>694891267</t>
-  </si>
-  <si>
-    <t>690979139</t>
-  </si>
-  <si>
-    <t>694921373</t>
-  </si>
-  <si>
-    <t>699304829</t>
-  </si>
-  <si>
-    <t>693048290</t>
-  </si>
-  <si>
-    <t>693224848</t>
-  </si>
-  <si>
-    <t>650782630</t>
-  </si>
-  <si>
-    <t>690286198</t>
-  </si>
-  <si>
-    <t>691645164</t>
-  </si>
-  <si>
-    <t>698400044</t>
-  </si>
-  <si>
-    <t>696598366</t>
-  </si>
-  <si>
-    <t>655165924</t>
   </si>
 </sst>
 </file>
@@ -734,9 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -745,128 +671,80 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>

--- a/web/import/contacts.xlsx
+++ b/web/import/contacts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -42,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,14 +65,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,15 +415,1823 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>694210203</v>
+      <c r="A1" s="1">
+        <v>656032557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>694954525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>699829842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>655176772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>690934287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>694412303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>671762804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>668552330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>653177804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>694246364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>654093862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>691488054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>694072274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>696037868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>696481804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>697220949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>693005572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>690241004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>697018545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>694555951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>694555951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>696796295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>696990644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>690234147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>694988406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>696733684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>695483751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>695019085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>697613919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>693157438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>691695433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>694999372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>693539393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>695438185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>696262702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>682872432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>696720257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>699546830</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>653320990</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>690040284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>696276468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>678974244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>655420931</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>694326234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>691762750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>696256716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>699259271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>673219660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>694254629</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>693048290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>691485621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>679037264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>697094883</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>650452163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>657319092</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>691233136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>698958461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>697246427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>697974408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>696253387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>696740008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>673906437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>695815794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>694266433</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>695611829</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>696602791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>698681073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>693753616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>699081847</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>698925743</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>656664323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>677372222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>693215292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>699254638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>680655778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>680655778</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>679549480</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>693506813</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>682825650</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>699561864</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>671619480</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>697787452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>696388078</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>678401208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>699248482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>691399233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>696570183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>657186282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>693992140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>698925743</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>656664323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>698907976</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>673363889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>690264575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>690217967</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>655539428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>697947028</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>673727964</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>672009295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>691393719</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>696457687</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>698910175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>696396093</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>699204556</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>693340402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>696845797</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>699602415</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>697867624</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>693902560</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>691747778</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>695212835</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>696912560</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>699750105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>696785585</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>694231120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>696355110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>691786915</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>695768671</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>694775624</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>696994731</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>695324484</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>697479913</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>699881374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>699959114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>698229853</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>690107527</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>698608082</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>695576556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>656735442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>698847289</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>676640829</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>694809559</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>697276302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>679978953</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>691362726</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>672795205</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>691419988</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>683811578</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>690789347</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>690349483</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>690229833</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>698731447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>690258862</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>695330627</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>699445376</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>655483061</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>697572614</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>693105041</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>655889639</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>696200885</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>696441816</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>695968112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>696228747</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>696105538</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>695135052</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>691546412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>698721896</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>655145339</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>674305294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>651178351</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>675486828</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>670313228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>698664512</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>690466577</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>694891658</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>698518320</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>671892537</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>695193802</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>693744361</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>696265282</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>696608977</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>693072912</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>675112450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>694266787</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>691293295</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>695999295</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>697845838</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>675994725</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>697949915</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>695163590</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>657180711</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>697324927</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>655286141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>698078321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>697500377</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>699822482</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>654181319</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>699172631</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>697329763</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>694394292</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>697724118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>698614631</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>698700868</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>693855584</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>694967110</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>696460073</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>699529532</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>693380202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>696737007</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>679662820</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>696818177</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>699046962</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>697221538</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>671636680</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>697008397</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>699222418</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>697613582</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>697533370</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>695447797</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>694405399</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>685292108</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>675065404</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>678735887</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>697253595</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>697235223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>678362198</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>694483767</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>697160987</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>694390659</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>679842648</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>695463259</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>679842648</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>695463259</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>697821681</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>697383592</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>697927961</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>696636593</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>699000964</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>696830453</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>675788555</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>699745592</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>699236289</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>696820078</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>699278043</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>697349305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>675925707</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>696187983</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>657845926</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>695956139</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>697081012</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>697148306</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>699189799</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>694922428</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>697625360</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>699864301</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>694033257</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>697570151</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>696583376</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>695850773</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>697168051</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>656360605</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>691488566</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>691861094</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>691861094</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>690985182</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>690938358</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>699811489</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>655541434</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="5">
+        <v>656499147</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>674789240</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>691341328</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="5">
+        <v>675782617</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="5">
+        <v>694082796</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>676597373</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="5">
+        <v>699111947</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="5">
+        <v>656444065</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>694262176</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>690978704</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>699888866</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>679378511</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>696373941</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="5">
+        <v>694228244</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>677136275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>671573330</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>694537971</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>696020644</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>694466364</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>696721371</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>693464274</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>676685539</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>696990806</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>694765352</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>694590078</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>694979826</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>698709671</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>655407541</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>694996610</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>690572767</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>677847517</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>695089630</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>699561610</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>650812387</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>697469553</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>691831357</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>696382889</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>697335723</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>693099629</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>695648545</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>655597108</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>676964134</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>697278330</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>691520401</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>696422755</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>658566587</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>696872613</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>672604396</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <v>690135265</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>695888926</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>655235074</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>699368505</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>691500140</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>699910278</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>698915053</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>695797241</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>691833060</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>696211980</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>650043369</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>691966455</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>695282300</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>693413326</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>698470005</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>657250277</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>693483112</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>656730752</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>696072583</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>696433127</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>655620212</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>691490814</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>675750152</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>69468111</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>696576742</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>697823762</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>699291596</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>696697457</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>659012652</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>695237481</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>677573914</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>696537066</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>699106717</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>696813769</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>655801331</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>656568593</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>699096706</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>655172217</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>696868274</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>698116546</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>696122753</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>694252570</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>695849794</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>670796832</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>691310125</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>699501379</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>699619764</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>697693781</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>690747390</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>661494859</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>694271835</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>696013042</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>695387147</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>696459079</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>693482220</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="6">
+        <v>695826002</v>
       </c>
     </row>
   </sheetData>

--- a/web/import/contacts.xlsx
+++ b/web/import/contacts.xlsx
@@ -415,9 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A362"/>
+  <dimension ref="A1:A363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="A365" sqref="A365"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2234,6 +2236,11 @@
         <v>695826002</v>
       </c>
     </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="6">
+        <v>696245919</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/import/contacts.xlsx
+++ b/web/import/contacts.xlsx
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A363"/>
+  <dimension ref="A1:A364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="A365" sqref="A365"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,6 +2241,11 @@
         <v>696245919</v>
       </c>
     </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="6">
+        <v>694210203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
